--- a/nn_clustering.xlsx
+++ b/nn_clustering.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuezhao/projects/fedod/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yzhao\PycharmProjects\fedod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE9D2A8-886D-294F-8488-B9BD025C55E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4F0729-A0A6-4C27-9559-55A0F11D6748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39020" yWindow="980" windowWidth="37380" windowHeight="21100" xr2:uid="{F5986BF2-57FA-0542-91DB-C4C511282E6F}"/>
+    <workbookView xWindow="25507" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{F5986BF2-57FA-0542-91DB-C4C511282E6F}"/>
   </bookViews>
   <sheets>
     <sheet name="annthyroid" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="4">
   <si>
     <t>Trial</t>
   </si>
@@ -481,108 +481,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2397FD8B-C994-7741-91C5-AFE66BEE0678}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="16.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>0.62941528683354497</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.62728855538203299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>0.63289982656466004</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.63971496896356705</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>0.61464010680043302</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>0.647600772089444</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>0.63241306131408004</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>0.62545678614924005</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>0.638944541360563</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>0.60503885338455099</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>0.69948287653470098</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>0.63435107733353502</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -590,12 +632,25 @@
         <f t="shared" ref="B12" si="0">AVERAGE(B2:B11)</f>
         <v>0.63602431883647526</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" ref="E12" si="1">AVERAGE(E2:E11)</f>
+        <v>0.63350176217280008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="11">
         <v>1</v>
       </c>
     </row>
@@ -609,15 +664,15 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B2:B11"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="2" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -625,67 +680,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7" t="s">
         <v>2</v>
       </c>
@@ -694,7 +749,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8" t="s">
         <v>3</v>
       </c>
@@ -709,106 +764,173 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E8C521-03A7-1B4F-A20A-7F832CFA4096}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="2" width="21.6640625" customWidth="1"/>
+    <col min="4" max="5" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>0.65201416703394799</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.75353505463810999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>0.70495796855250004</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.73572885044105996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>0.70867195610431299</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.75489831128289397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>0.75271268031157601</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.67413537279042002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>0.73674975394280995</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.82413075389568202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>0.68988822368793301</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.71252782726850294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>0.68769778472683296</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>0.75854531557243199</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.670046619732096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>0.73087678704619596</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D10" s="1">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.73140338434028296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>0.72263885185340404</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.680361241863779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -816,12 +938,25 @@
         <f t="shared" ref="B12" si="0">AVERAGE(B2:B11)</f>
         <v>0.71447534888319442</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" ref="E12" si="1">AVERAGE(E2:E11)</f>
+        <v>0.75367674162528275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="11">
         <v>1</v>
       </c>
     </row>
@@ -832,106 +967,172 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4490F579-1F97-D04C-8F56-3F19B9619D0D}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="2" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>0.76142767889220597</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.85037260866115905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>0.74931201583470197</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.81461960302605796</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>0.74782571281560195</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.737898821847074</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>0.85357158570548497</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.80735299584536302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>0.735582408843095</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.85203340946983497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>0.72641845204842104</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>0.82168429300914203</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.84228890776384802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>0.83235645450837004</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.75064976957972496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>0.71971512614215405</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D10" s="1">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.84551715668248595</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>0.84734198239347902</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.85272296530647396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -939,12 +1140,25 @@
         <f t="shared" ref="B12" si="0">AVERAGE(B2:B11)</f>
         <v>0.77952357101926562</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" ref="E12" si="1">AVERAGE(E2:E11)</f>
+        <v>0.8353456238182021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="11">
         <v>1</v>
       </c>
     </row>

--- a/nn_clustering.xlsx
+++ b/nn_clustering.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yzhao\PycharmProjects\fedod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4F0729-A0A6-4C27-9559-55A0F11D6748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98436D7-0ACB-4324-BB49-F56E830FEAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25507" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{F5986BF2-57FA-0542-91DB-C4C511282E6F}"/>
+    <workbookView xWindow="26773" yWindow="1120" windowWidth="19200" windowHeight="12560" xr2:uid="{F5986BF2-57FA-0542-91DB-C4C511282E6F}"/>
   </bookViews>
   <sheets>
     <sheet name="annthyroid" sheetId="1" r:id="rId1"/>
@@ -484,14 +484,16 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="16.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -546,6 +548,9 @@
       <c r="D4" s="1">
         <v>3</v>
       </c>
+      <c r="E4" s="1">
+        <v>0.72915092926810698</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
@@ -557,6 +562,9 @@
       <c r="D5" s="1">
         <v>4</v>
       </c>
+      <c r="E5" s="1">
+        <v>0.66474250141477798</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
@@ -568,6 +576,9 @@
       <c r="D6" s="1">
         <v>5</v>
       </c>
+      <c r="E6" s="1">
+        <v>0.64040108543285801</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
@@ -579,6 +590,9 @@
       <c r="D7" s="1">
         <v>6</v>
       </c>
+      <c r="E7" s="1">
+        <v>0.65626784031383101</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
@@ -590,6 +604,9 @@
       <c r="D8" s="1">
         <v>7</v>
       </c>
+      <c r="E8" s="1">
+        <v>0.65978107304381195</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
@@ -601,6 +618,9 @@
       <c r="D9" s="1">
         <v>8</v>
       </c>
+      <c r="E9" s="1">
+        <v>0.685273675720388</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
@@ -612,6 +632,9 @@
       <c r="D10" s="1">
         <v>9</v>
       </c>
+      <c r="E10" s="1">
+        <v>0.68448145683087902</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
@@ -623,6 +646,9 @@
       <c r="D11" s="1">
         <v>10</v>
       </c>
+      <c r="E11" s="1">
+        <v>0.63545825106632103</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
@@ -637,7 +663,7 @@
       </c>
       <c r="E12" s="9">
         <f t="shared" ref="E12" si="1">AVERAGE(E2:E11)</f>
-        <v>0.63350176217280008</v>
+        <v>0.66225603374365738</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
